--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Npnt-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Npnt-Itga8.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.391327</v>
+        <v>0.263451</v>
       </c>
       <c r="H2">
-        <v>1.173981</v>
+        <v>0.790353</v>
       </c>
       <c r="I2">
-        <v>0.2020349760212956</v>
+        <v>0.1456293935328523</v>
       </c>
       <c r="J2">
-        <v>0.2020349760212956</v>
+        <v>0.1456293935328523</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5253496666666667</v>
+        <v>0.305927</v>
       </c>
       <c r="N2">
-        <v>1.576049</v>
+        <v>0.917781</v>
       </c>
       <c r="O2">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="P2">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="Q2">
-        <v>0.2055835090076667</v>
+        <v>0.080596774077</v>
       </c>
       <c r="R2">
-        <v>1.850251581069</v>
+        <v>0.7253709666929999</v>
       </c>
       <c r="S2">
-        <v>0.003711858705898949</v>
+        <v>0.001570105042340451</v>
       </c>
       <c r="T2">
-        <v>0.003711858705898949</v>
+        <v>0.001570105042340451</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.391327</v>
+        <v>0.263451</v>
       </c>
       <c r="H3">
-        <v>1.173981</v>
+        <v>0.790353</v>
       </c>
       <c r="I3">
-        <v>0.2020349760212956</v>
+        <v>0.1456293935328523</v>
       </c>
       <c r="J3">
-        <v>0.2020349760212956</v>
+        <v>0.1456293935328523</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.152878000000001</v>
       </c>
       <c r="O3">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546363</v>
       </c>
       <c r="P3">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546361</v>
       </c>
       <c r="Q3">
-        <v>1.063480429702</v>
+        <v>0.7159612873260001</v>
       </c>
       <c r="R3">
-        <v>9.571323867318</v>
+        <v>6.443651585934001</v>
       </c>
       <c r="S3">
-        <v>0.01920138979335796</v>
+        <v>0.01394763550061129</v>
       </c>
       <c r="T3">
-        <v>0.01920138979335795</v>
+        <v>0.01394763550061129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.391327</v>
+        <v>0.263451</v>
       </c>
       <c r="H4">
-        <v>1.173981</v>
+        <v>0.790353</v>
       </c>
       <c r="I4">
-        <v>0.2020349760212956</v>
+        <v>0.1456293935328523</v>
       </c>
       <c r="J4">
-        <v>0.2020349760212956</v>
+        <v>0.1456293935328523</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>76.05478600000001</v>
       </c>
       <c r="O4">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="P4">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="Q4">
-        <v>9.920763747007333</v>
+        <v>6.678903142162</v>
       </c>
       <c r="R4">
-        <v>89.28687372306601</v>
+        <v>60.110128279458</v>
       </c>
       <c r="S4">
-        <v>0.1791217275220387</v>
+        <v>0.1301116529899005</v>
       </c>
       <c r="T4">
-        <v>0.1791217275220387</v>
+        <v>0.1301116529899006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.6368</v>
       </c>
       <c r="I5">
-        <v>0.7979650239787044</v>
+        <v>0.8543706064671477</v>
       </c>
       <c r="J5">
-        <v>0.7979650239787044</v>
+        <v>0.8543706064671478</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5253496666666667</v>
+        <v>0.305927</v>
       </c>
       <c r="N5">
-        <v>1.576049</v>
+        <v>0.917781</v>
       </c>
       <c r="O5">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="P5">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="Q5">
-        <v>0.8119804448000001</v>
+        <v>0.4728407712</v>
       </c>
       <c r="R5">
-        <v>7.3078240032</v>
+        <v>4.2555669408</v>
       </c>
       <c r="S5">
-        <v>0.01466049829384994</v>
+        <v>0.009211406878096498</v>
       </c>
       <c r="T5">
-        <v>0.01466049829384994</v>
+        <v>0.009211406878096498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.6368</v>
       </c>
       <c r="I6">
-        <v>0.7979650239787044</v>
+        <v>0.8543706064671477</v>
       </c>
       <c r="J6">
-        <v>0.7979650239787044</v>
+        <v>0.8543706064671478</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.152878000000001</v>
       </c>
       <c r="O6">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546363</v>
       </c>
       <c r="P6">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546361</v>
       </c>
       <c r="Q6">
         <v>4.200362745600001</v>
@@ -818,10 +818,10 @@
         <v>37.80326471040001</v>
       </c>
       <c r="S6">
-        <v>0.07583853928968372</v>
+        <v>0.08182722946485234</v>
       </c>
       <c r="T6">
-        <v>0.07583853928968372</v>
+        <v>0.08182722946485234</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.6368</v>
       </c>
       <c r="I7">
-        <v>0.7979650239787044</v>
+        <v>0.8543706064671477</v>
       </c>
       <c r="J7">
-        <v>0.7979650239787044</v>
+        <v>0.8543706064671478</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>76.05478600000001</v>
       </c>
       <c r="O7">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="P7">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="Q7">
         <v>39.1834257472</v>
@@ -880,10 +880,10 @@
         <v>352.6508317248</v>
       </c>
       <c r="S7">
-        <v>0.7074659863951708</v>
+        <v>0.7633319701241988</v>
       </c>
       <c r="T7">
-        <v>0.7074659863951708</v>
+        <v>0.763331970124199</v>
       </c>
     </row>
   </sheetData>
